--- a/samples/trekking2.xlsx
+++ b/samples/trekking2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t xml:space="preserve">ККал на 100</t>
   </si>
@@ -150,16 +150,20 @@
   </si>
   <si>
     <t xml:space="preserve">Вес в граммах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">верный ответ:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,18 +174,22 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -199,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -207,8 +215,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,28 +247,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="12">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Угол сводной таблицы" xfId="20"/>
+    <cellStyle name="Значение сводной таблицы" xfId="21"/>
+    <cellStyle name="Поле сводной таблицы" xfId="22"/>
+    <cellStyle name="Категория сводной таблицы" xfId="23"/>
+    <cellStyle name="Заглавие сводной таблицы" xfId="24"/>
+    <cellStyle name="Результат сводной таблицы" xfId="25"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -266,7 +309,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C18:G30 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,7 +318,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -290,7 +333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -307,7 +350,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -324,7 +367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -339,7 +382,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -354,7 +397,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -371,7 +414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -388,7 +431,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -403,7 +446,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -418,7 +461,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -435,7 +478,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -452,7 +495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -469,7 +512,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -486,7 +529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -503,7 +546,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -520,7 +563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -537,7 +580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -554,7 +597,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -571,7 +614,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -586,7 +629,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -601,7 +644,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -616,7 +659,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -633,7 +676,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -650,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -667,7 +710,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -675,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -692,7 +735,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -707,7 +750,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -722,7 +765,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -739,7 +782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -756,7 +799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -773,7 +816,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -790,7 +833,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -807,7 +850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -824,7 +867,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -839,7 +882,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -856,7 +899,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -873,7 +916,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -906,10 +949,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1023,10 +1066,296 @@
         <v>80</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3" t="n">
+        <f aca="false">B2/100</f>
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">$C$18*Справочник!B36</f>
+        <v>315.6</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <f aca="false">$C$18*Справочник!C36</f>
+        <v>25.8</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <f aca="false">$C$18*Справочник!D36</f>
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <f aca="false">$C$18*Справочник!E36</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3" t="n">
+        <f aca="false">B3/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">$C$19*Справочник!B19</f>
+        <v>296</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <f aca="false">$C$19*Справочник!C19</f>
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <f aca="false">$C$19*Справочник!D19</f>
+        <v>24</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <f aca="false">$C$19*Справочник!E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="n">
+        <f aca="false">B4/100</f>
+        <v>0.55</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">$C$20*Справочник!B24</f>
+        <v>240.075</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <f aca="false">$C$20*Справочник!C24</f>
+        <v>7.755</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <f aca="false">$C$20*Справочник!D24</f>
+        <v>15.95</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <f aca="false">$C$20*Справочник!E24</f>
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3" t="n">
+        <f aca="false">B5/100</f>
+        <v>0.44</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">$C$21*Справочник!B6</f>
+        <v>171.6</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <f aca="false">$C$21*Справочник!C6</f>
+        <v>7.04</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <f aca="false">$C$21*Справочник!D6</f>
+        <v>4.84</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <f aca="false">$C$21*Справочник!E6</f>
+        <v>22.88</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3" t="n">
+        <f aca="false">B6/100</f>
+        <v>0.55</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <f aca="false">$C$22*Справочник!B24</f>
+        <v>240.075</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <f aca="false">$C$22*Справочник!C24</f>
+        <v>7.755</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <f aca="false">$C$22*Справочник!D24</f>
+        <v>15.95</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <f aca="false">$C$22*Справочник!E24</f>
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3" t="n">
+        <f aca="false">B7/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <f aca="false">$C$23*Справочник!B5</f>
+        <v>384.8</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <f aca="false">$C$23*Справочник!C5</f>
+        <v>15.2</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <f aca="false">$C$23*Справочник!D5</f>
+        <v>36</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <f aca="false">$C$23*Справочник!E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="n">
+        <f aca="false">B8/100</f>
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">$C$24*Справочник!B8</f>
+        <v>532.5</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <f aca="false">$C$24*Справочник!C8</f>
+        <v>37.5</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <f aca="false">$C$24*Справочник!D8</f>
+        <v>42.5</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <f aca="false">$C$24*Справочник!E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3" t="n">
+        <f aca="false">B9/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <f aca="false">$C$25*Справочник!B11</f>
+        <v>576</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <f aca="false">$C$25*Справочник!C11</f>
+        <v>20.8</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <f aca="false">$C$25*Справочник!D11</f>
+        <v>3.2</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <f aca="false">$C$25*Справочник!E11</f>
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="3" t="n">
+        <f aca="false">B10/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <f aca="false">$C$26*Справочник!B22</f>
+        <v>541.2</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <f aca="false">$C$26*Справочник!C22</f>
+        <v>20.76</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <f aca="false">$C$26*Справочник!D22</f>
+        <v>19.2</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <f aca="false">$C$26*Справочник!E22</f>
+        <v>71.4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="3" t="n">
+        <f aca="false">B11/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <f aca="false">$C$27*Справочник!B5</f>
+        <v>384.8</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <f aca="false">$C$27*Справочник!C5</f>
+        <v>15.2</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <f aca="false">$C$27*Справочник!D5</f>
+        <v>36</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <f aca="false">$C$27*Справочник!E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="3" t="n">
+        <f aca="false">B12/100</f>
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <f aca="false">$C$28*Справочник!B2</f>
+        <v>822</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <f aca="false">$C$28*Справочник!C2</f>
+        <v>19.2</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <f aca="false">$C$28*Справочник!D2</f>
+        <v>61.2</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <f aca="false">$C$28*Справочник!E2</f>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="3" t="n">
+        <f aca="false">B13/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <f aca="false">$C$29*Справочник!B17</f>
+        <v>459.2</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <f aca="false">$C$29*Справочник!C17</f>
+        <v>6.16</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <f aca="false">$C$29*Справочник!D17</f>
+        <v>30.56</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <f aca="false">$C$29*Справочник!E17</f>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="n">
+        <f aca="false">SUM(D18:D29)</f>
+        <v>4963.85</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <f aca="false">SUM(E18:E29)</f>
+        <v>203.17</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <f aca="false">SUM(F18:F29)</f>
+        <v>307.4</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <f aca="false">SUM(G18:G29)</f>
+        <v>302.15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/samples/trekking2.xlsx
+++ b/samples/trekking2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t xml:space="preserve">ККал на 100</t>
   </si>
@@ -150,20 +150,16 @@
   </si>
   <si>
     <t xml:space="preserve">Вес в граммах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">верный ответ:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -174,22 +170,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -207,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -215,15 +207,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,56 +232,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Угол сводной таблицы" xfId="20"/>
-    <cellStyle name="Значение сводной таблицы" xfId="21"/>
-    <cellStyle name="Поле сводной таблицы" xfId="22"/>
-    <cellStyle name="Категория сводной таблицы" xfId="23"/>
-    <cellStyle name="Заглавие сводной таблицы" xfId="24"/>
-    <cellStyle name="Результат сводной таблицы" xfId="25"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -309,7 +266,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C18:G30 A1"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -318,7 +275,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -333,7 +290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -350,7 +307,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -367,7 +324,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -382,7 +339,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -397,7 +354,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -414,7 +371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -431,7 +388,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -446,7 +403,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -461,7 +418,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -478,7 +435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -495,7 +452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -512,7 +469,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -529,7 +486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -546,7 +503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -563,7 +520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -580,7 +537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -597,7 +554,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -614,7 +571,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -629,7 +586,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -644,7 +601,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -659,7 +616,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -676,7 +633,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -693,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -710,7 +667,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -718,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -735,7 +692,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -750,7 +707,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -765,7 +722,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -782,7 +739,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -799,7 +756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -816,7 +773,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -833,7 +790,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -850,7 +807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -867,7 +824,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -882,7 +839,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -899,7 +856,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -916,7 +873,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -949,10 +906,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18:G30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1066,296 +1023,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3" t="n">
-        <f aca="false">B2/100</f>
-        <v>0.6</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <f aca="false">$C$18*Справочник!B36</f>
-        <v>315.6</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <f aca="false">$C$18*Справочник!C36</f>
-        <v>25.8</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <f aca="false">$C$18*Справочник!D36</f>
-        <v>18</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <f aca="false">$C$18*Справочник!E36</f>
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="3" t="n">
-        <f aca="false">B3/100</f>
-        <v>0.8</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <f aca="false">$C$19*Справочник!B19</f>
-        <v>296</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <f aca="false">$C$19*Справочник!C19</f>
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <f aca="false">$C$19*Справочник!D19</f>
-        <v>24</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <f aca="false">$C$19*Справочник!E19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="3" t="n">
-        <f aca="false">B4/100</f>
-        <v>0.55</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <f aca="false">$C$20*Справочник!B24</f>
-        <v>240.075</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <f aca="false">$C$20*Справочник!C24</f>
-        <v>7.755</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <f aca="false">$C$20*Справочник!D24</f>
-        <v>15.95</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <f aca="false">$C$20*Справочник!E24</f>
-        <v>0.825</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="3" t="n">
-        <f aca="false">B5/100</f>
-        <v>0.44</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <f aca="false">$C$21*Справочник!B6</f>
-        <v>171.6</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <f aca="false">$C$21*Справочник!C6</f>
-        <v>7.04</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <f aca="false">$C$21*Справочник!D6</f>
-        <v>4.84</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <f aca="false">$C$21*Справочник!E6</f>
-        <v>22.88</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="3" t="n">
-        <f aca="false">B6/100</f>
-        <v>0.55</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <f aca="false">$C$22*Справочник!B24</f>
-        <v>240.075</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <f aca="false">$C$22*Справочник!C24</f>
-        <v>7.755</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <f aca="false">$C$22*Справочник!D24</f>
-        <v>15.95</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <f aca="false">$C$22*Справочник!E24</f>
-        <v>0.825</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="3" t="n">
-        <f aca="false">B7/100</f>
-        <v>0.8</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <f aca="false">$C$23*Справочник!B5</f>
-        <v>384.8</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <f aca="false">$C$23*Справочник!C5</f>
-        <v>15.2</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <f aca="false">$C$23*Справочник!D5</f>
-        <v>36</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <f aca="false">$C$23*Справочник!E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="3" t="n">
-        <f aca="false">B8/100</f>
-        <v>2.5</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <f aca="false">$C$24*Справочник!B8</f>
-        <v>532.5</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <f aca="false">$C$24*Справочник!C8</f>
-        <v>37.5</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <f aca="false">$C$24*Справочник!D8</f>
-        <v>42.5</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <f aca="false">$C$24*Справочник!E8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="3" t="n">
-        <f aca="false">B9/100</f>
-        <v>1.6</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <f aca="false">$C$25*Справочник!B11</f>
-        <v>576</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <f aca="false">$C$25*Справочник!C11</f>
-        <v>20.8</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <f aca="false">$C$25*Справочник!D11</f>
-        <v>3.2</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <f aca="false">$C$25*Справочник!E11</f>
-        <v>115.2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="3" t="n">
-        <f aca="false">B10/100</f>
-        <v>1.2</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <f aca="false">$C$26*Справочник!B22</f>
-        <v>541.2</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <f aca="false">$C$26*Справочник!C22</f>
-        <v>20.76</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <f aca="false">$C$26*Справочник!D22</f>
-        <v>19.2</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <f aca="false">$C$26*Справочник!E22</f>
-        <v>71.4</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="3" t="n">
-        <f aca="false">B11/100</f>
-        <v>0.8</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <f aca="false">$C$27*Справочник!B5</f>
-        <v>384.8</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <f aca="false">$C$27*Справочник!C5</f>
-        <v>15.2</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <f aca="false">$C$27*Справочник!D5</f>
-        <v>36</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <f aca="false">$C$27*Справочник!E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="3" t="n">
-        <f aca="false">B12/100</f>
-        <v>1.5</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <f aca="false">$C$28*Справочник!B2</f>
-        <v>822</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <f aca="false">$C$28*Справочник!C2</f>
-        <v>19.2</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <f aca="false">$C$28*Справочник!D2</f>
-        <v>61.2</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <f aca="false">$C$28*Справочник!E2</f>
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3" t="n">
-        <f aca="false">B13/100</f>
-        <v>0.8</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <f aca="false">$C$29*Справочник!B17</f>
-        <v>459.2</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <f aca="false">$C$29*Справочник!C17</f>
-        <v>6.16</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <f aca="false">$C$29*Справочник!D17</f>
-        <v>30.56</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <f aca="false">$C$29*Справочник!E17</f>
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="n">
-        <f aca="false">SUM(D18:D29)</f>
-        <v>4963.85</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <f aca="false">SUM(E18:E29)</f>
-        <v>203.17</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <f aca="false">SUM(F18:F29)</f>
-        <v>307.4</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <f aca="false">SUM(G18:G29)</f>
-        <v>302.15</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
